--- a/TP3/rapport/resultats.xlsx
+++ b/TP3/rapport/resultats.xlsx
@@ -517,36 +517,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,15 +536,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,6 +554,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,69 +881,69 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="12"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -958,12 +958,12 @@
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2">
@@ -978,12 +978,12 @@
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -998,40 +998,40 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1046,12 +1046,12 @@
       <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="2">
@@ -1066,27 +1066,27 @@
       <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1109,69 +1109,69 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="8"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="8"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1186,12 +1186,12 @@
       <c r="F22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2">
@@ -1206,12 +1206,12 @@
       <c r="F23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1226,40 +1226,40 @@
       <c r="F24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1274,12 +1274,12 @@
       <c r="F27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1294,27 +1294,27 @@
       <c r="F28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1335,69 +1335,69 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="8"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="8"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="C35" s="17" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
-      <c r="C36" s="15" t="s">
+      <c r="B36" s="6"/>
+      <c r="C36" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1412,12 +1412,12 @@
       <c r="F37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="2">
@@ -1432,12 +1432,12 @@
       <c r="F38" s="2">
         <v>0</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1452,40 +1452,40 @@
       <c r="F39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
-      <c r="C40" s="17" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
-      <c r="C41" s="15" t="s">
+      <c r="B41" s="6"/>
+      <c r="C41" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1500,12 +1500,12 @@
       <c r="F42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="2">
@@ -1520,27 +1520,27 @@
       <c r="F43" s="2">
         <v>0</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="10">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10" t="s">
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1561,69 +1561,69 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="8"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="8"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="13"/>
-      <c r="C50" s="17" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="13"/>
-      <c r="C51" s="15" t="s">
+      <c r="B51" s="6"/>
+      <c r="C51" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -1638,12 +1638,12 @@
       <c r="F52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="2">
@@ -1658,12 +1658,12 @@
       <c r="F53" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -1678,40 +1678,40 @@
       <c r="F54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="13"/>
-      <c r="C55" s="17" t="s">
+      <c r="B55" s="6"/>
+      <c r="C55" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="18"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="13"/>
-      <c r="C56" s="15" t="s">
+      <c r="B56" s="6"/>
+      <c r="C56" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -1726,12 +1726,12 @@
       <c r="F57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -1746,37 +1746,32 @@
       <c r="F58" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="10">
-        <v>0</v>
-      </c>
-      <c r="F59" s="10" t="s">
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="5" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C50:G50"/>
     <mergeCell ref="C55:G55"/>
     <mergeCell ref="D3:G4"/>
     <mergeCell ref="D18:G19"/>
@@ -1788,6 +1783,11 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C40:G40"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C50:G50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
